--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/22Sept2013_Xining_Physioflow_X5X8/X6 at 2200.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/22Sept2013_Xining_Physioflow_X5X8/X6 at 2200.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView windowWidth="16391" windowHeight="5412"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -90,21 +90,6 @@
     <t xml:space="preserve"> Marks </t>
   </si>
   <si>
-    <t>rest at 2200</t>
-  </si>
-  <si>
-    <t>60w</t>
-  </si>
-  <si>
-    <t>120w</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>---------------</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avg Hr </t>
   </si>
   <si>
@@ -150,31 +135,389 @@
     <t>Avg EDFR</t>
   </si>
   <si>
+    <t>rest at 2200</t>
+  </si>
+  <si>
+    <t>60w</t>
+  </si>
+  <si>
+    <t>120w</t>
+  </si>
+  <si>
     <t>submax</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>---------------</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -182,20 +525,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -203,6 +835,1338 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$87</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="82"/>
+                <c:pt idx="0" c:formatCode="h:mm:ss">
+                  <c:v>0.000115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm:ss">
+                  <c:v>0.000231481481481481</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm:ss">
+                  <c:v>0.000347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm:ss">
+                  <c:v>0.000462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm:ss">
+                  <c:v>0.000578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm:ss">
+                  <c:v>0.000694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm:ss">
+                  <c:v>0.000810185185185185</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm:ss">
+                  <c:v>0.000925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="h:mm:ss">
+                  <c:v>0.00104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="h:mm:ss">
+                  <c:v>0.00115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="h:mm:ss">
+                  <c:v>0.00127314814814815</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="h:mm:ss">
+                  <c:v>0.00138888888888889</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="h:mm:ss">
+                  <c:v>0.00150462962962963</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="h:mm:ss">
+                  <c:v>0.00162037037037037</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="h:mm:ss">
+                  <c:v>0.00173611111111111</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="h:mm:ss">
+                  <c:v>0.00185185185185185</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="h:mm:ss">
+                  <c:v>0.00196759259259259</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="h:mm:ss">
+                  <c:v>0.00208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="h:mm:ss">
+                  <c:v>0.00219907407407407</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="h:mm:ss">
+                  <c:v>0.00231481481481482</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="h:mm:ss">
+                  <c:v>0.00243055555555556</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="h:mm:ss">
+                  <c:v>0.0025462962962963</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="h:mm:ss">
+                  <c:v>0.00266203703703704</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="h:mm:ss">
+                  <c:v>0.00277777777777778</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="h:mm:ss">
+                  <c:v>0.00289351851851852</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="h:mm:ss">
+                  <c:v>0.00300925925925926</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="h:mm:ss">
+                  <c:v>0.003125</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="h:mm:ss">
+                  <c:v>0.00324074074074074</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="h:mm:ss">
+                  <c:v>0.00335648148148148</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="h:mm:ss">
+                  <c:v>0.00347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="h:mm:ss">
+                  <c:v>0.00358796296296296</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="h:mm:ss">
+                  <c:v>0.0037037037037037</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="h:mm:ss">
+                  <c:v>0.00381944444444444</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="h:mm:ss">
+                  <c:v>0.00393518518518519</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="h:mm:ss">
+                  <c:v>0.00405092592592593</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="h:mm:ss">
+                  <c:v>0.00416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="h:mm:ss">
+                  <c:v>0.00428240740740741</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="h:mm:ss">
+                  <c:v>0.00439814814814815</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="h:mm:ss">
+                  <c:v>0.00451388888888889</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="h:mm:ss">
+                  <c:v>0.00462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="h:mm:ss">
+                  <c:v>0.00474537037037037</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="h:mm:ss">
+                  <c:v>0.00486111111111111</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="h:mm:ss">
+                  <c:v>0.00497685185185185</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="h:mm:ss">
+                  <c:v>0.00509259259259259</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="h:mm:ss">
+                  <c:v>0.00520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="h:mm:ss">
+                  <c:v>0.00532407407407407</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="h:mm:ss">
+                  <c:v>0.00543981481481481</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="h:mm:ss">
+                  <c:v>0.00555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="h:mm:ss">
+                  <c:v>0.0056712962962963</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="h:mm:ss">
+                  <c:v>0.00578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="h:mm:ss">
+                  <c:v>0.00590277777777778</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="h:mm:ss">
+                  <c:v>0.00601851851851852</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="h:mm:ss">
+                  <c:v>0.00613425925925926</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="h:mm:ss">
+                  <c:v>0.00625</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="h:mm:ss">
+                  <c:v>0.00636574074074074</c:v>
+                </c:pt>
+                <c:pt idx="55" c:formatCode="h:mm:ss">
+                  <c:v>0.00648148148148148</c:v>
+                </c:pt>
+                <c:pt idx="56" c:formatCode="h:mm:ss">
+                  <c:v>0.00659722222222222</c:v>
+                </c:pt>
+                <c:pt idx="57" c:formatCode="h:mm:ss">
+                  <c:v>0.00671296296296296</c:v>
+                </c:pt>
+                <c:pt idx="58" c:formatCode="h:mm:ss">
+                  <c:v>0.0068287037037037</c:v>
+                </c:pt>
+                <c:pt idx="59" c:formatCode="h:mm:ss">
+                  <c:v>0.00694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="60" c:formatCode="h:mm:ss">
+                  <c:v>0.00706018518518518</c:v>
+                </c:pt>
+                <c:pt idx="61" c:formatCode="h:mm:ss">
+                  <c:v>0.00717592592592593</c:v>
+                </c:pt>
+                <c:pt idx="62" c:formatCode="h:mm:ss">
+                  <c:v>0.00729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="63" c:formatCode="h:mm:ss">
+                  <c:v>0.00740740740740741</c:v>
+                </c:pt>
+                <c:pt idx="64" c:formatCode="h:mm:ss">
+                  <c:v>0.00752314814814815</c:v>
+                </c:pt>
+                <c:pt idx="65" c:formatCode="h:mm:ss">
+                  <c:v>0.00763888888888889</c:v>
+                </c:pt>
+                <c:pt idx="66" c:formatCode="h:mm:ss">
+                  <c:v>0.00775462962962963</c:v>
+                </c:pt>
+                <c:pt idx="67" c:formatCode="h:mm:ss">
+                  <c:v>0.00787037037037037</c:v>
+                </c:pt>
+                <c:pt idx="68" c:formatCode="h:mm:ss">
+                  <c:v>0.00798611111111111</c:v>
+                </c:pt>
+                <c:pt idx="69" c:formatCode="h:mm:ss">
+                  <c:v>0.00810185185185185</c:v>
+                </c:pt>
+                <c:pt idx="70" c:formatCode="h:mm:ss">
+                  <c:v>0.00821759259259259</c:v>
+                </c:pt>
+                <c:pt idx="71" c:formatCode="h:mm:ss">
+                  <c:v>0.00833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="72" c:formatCode="h:mm:ss">
+                  <c:v>0.00844907407407407</c:v>
+                </c:pt>
+                <c:pt idx="73" c:formatCode="h:mm:ss">
+                  <c:v>0.00856481481481482</c:v>
+                </c:pt>
+                <c:pt idx="74" c:formatCode="h:mm:ss">
+                  <c:v>0.00868055555555556</c:v>
+                </c:pt>
+                <c:pt idx="75" c:formatCode="h:mm:ss">
+                  <c:v>0.0087962962962963</c:v>
+                </c:pt>
+                <c:pt idx="76" c:formatCode="h:mm:ss">
+                  <c:v>0.00891203703703704</c:v>
+                </c:pt>
+                <c:pt idx="77" c:formatCode="h:mm:ss">
+                  <c:v>0.00902777777777778</c:v>
+                </c:pt>
+                <c:pt idx="78" c:formatCode="h:mm:ss">
+                  <c:v>0.00914351851851852</c:v>
+                </c:pt>
+                <c:pt idx="79" c:formatCode="h:mm:ss">
+                  <c:v>0.00925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="80" c:formatCode="h:mm:ss">
+                  <c:v>0.009375</c:v>
+                </c:pt>
+                <c:pt idx="81" c:formatCode="h:mm:ss">
+                  <c:v>0.00949074074074074</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="82"/>
+                <c:pt idx="0">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.89</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.53</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.81</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.68</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.69</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.06</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.83</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.86</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.78</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.62</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.61</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.62</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.09</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.98</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.41</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.59</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.95</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.05</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.78</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.89</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.85</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.68</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.54</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.51</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.77</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10.21</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10.62</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10.13</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10.79</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10.78</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10.74</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10.86</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11.15</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11.16</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>11.19</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11.59</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11.78</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11.81</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>12.05</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>11.66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>12.25</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12.34</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>12.32</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>12.41</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12.64</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>13.15</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13.31</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>13.71</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>13.51</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>13.74</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>13.47</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>13.24</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>12.85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>12.42</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>11.97</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>12.09</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="196131550"/>
+        <c:axId val="733318078"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="196131550"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="733318078"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="733318078"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="196131550"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>157480</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>73660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>408940</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>73660</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5712460" y="2633980"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -486,21 +2450,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M65" workbookViewId="0">
-      <selection activeCell="X76" sqref="X76"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68:E80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -522,7 +2486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -581,57 +2545,57 @@
         <v>23</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AD4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AE4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>1.1574074074074073E-4</v>
+        <v>0.000115740740740741</v>
       </c>
       <c r="B6" s="1">
-        <v>0.87657407407407406</v>
+        <v>0.876574074074074</v>
       </c>
       <c r="C6">
         <v>102</v>
@@ -670,7 +2634,7 @@
         <v>1602</v>
       </c>
       <c r="O6">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="P6">
         <v>123</v>
@@ -679,12 +2643,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
-        <v>2.3148148148148146E-4</v>
+        <v>0.000231481481481481</v>
       </c>
       <c r="B7" s="1">
-        <v>0.87668981481481489</v>
+        <v>0.876689814814815</v>
       </c>
       <c r="C7">
         <v>101</v>
@@ -732,15 +2696,15 @@
         <v>36</v>
       </c>
       <c r="S7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>3.4722222222222224E-4</v>
+        <v>0.000347222222222222</v>
       </c>
       <c r="B8" s="1">
-        <v>0.8768055555555555</v>
+        <v>0.876805555555556</v>
       </c>
       <c r="C8">
         <v>93</v>
@@ -788,12 +2752,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>4.6296296296296293E-4</v>
+        <v>0.000462962962962963</v>
       </c>
       <c r="B9" s="1">
-        <v>0.87692129629629623</v>
+        <v>0.876921296296296</v>
       </c>
       <c r="C9">
         <v>90</v>
@@ -841,12 +2805,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>5.7870370370370378E-4</v>
+        <v>0.000578703703703704</v>
       </c>
       <c r="B10" s="1">
-        <v>0.87703703703703706</v>
+        <v>0.877037037037037</v>
       </c>
       <c r="C10">
         <v>91</v>
@@ -894,12 +2858,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>0.000694444444444444</v>
       </c>
       <c r="B11" s="1">
-        <v>0.87715277777777778</v>
+        <v>0.877152777777778</v>
       </c>
       <c r="C11">
         <v>90</v>
@@ -947,12 +2911,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>8.1018518518518516E-4</v>
+        <v>0.000810185185185185</v>
       </c>
       <c r="B12" s="1">
-        <v>0.87726851851851861</v>
+        <v>0.877268518518519</v>
       </c>
       <c r="C12">
         <v>93</v>
@@ -1000,12 +2964,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
-        <v>9.2592592592592585E-4</v>
+        <v>0.000925925925925926</v>
       </c>
       <c r="B13" s="1">
-        <v>0.87738425925925922</v>
+        <v>0.877384259259259</v>
       </c>
       <c r="C13">
         <v>92</v>
@@ -1053,15 +3017,15 @@
         <v>43</v>
       </c>
       <c r="S13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>1.0416666666666667E-3</v>
+        <v>0.00104166666666667</v>
       </c>
       <c r="B14" s="1">
-        <v>0.87749999999999995</v>
+        <v>0.8775</v>
       </c>
       <c r="C14">
         <v>90</v>
@@ -1109,12 +3073,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>1.1574074074074073E-3</v>
+        <v>0.00115740740740741</v>
       </c>
       <c r="B15" s="1">
-        <v>0.87761574074074078</v>
+        <v>0.877615740740741</v>
       </c>
       <c r="C15">
         <v>90</v>
@@ -1162,12 +3126,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>1.2731481481481483E-3</v>
+        <v>0.00127314814814815</v>
       </c>
       <c r="B16" s="1">
-        <v>0.8777314814814815</v>
+        <v>0.877731481481482</v>
       </c>
       <c r="C16">
         <v>96</v>
@@ -1215,12 +3179,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>1.3888888888888889E-3</v>
+        <v>0.00138888888888889</v>
       </c>
       <c r="B17" s="1">
-        <v>0.87784722222222211</v>
+        <v>0.877847222222222</v>
       </c>
       <c r="C17">
         <v>95</v>
@@ -1229,7 +3193,7 @@
         <v>53</v>
       </c>
       <c r="E17">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="F17">
         <v>3.16</v>
@@ -1268,12 +3232,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>1.5046296296296294E-3</v>
+        <v>0.00150462962962963</v>
       </c>
       <c r="B18" s="1">
-        <v>0.87796296296296295</v>
+        <v>0.877962962962963</v>
       </c>
       <c r="C18">
         <v>96</v>
@@ -1321,12 +3285,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>1.6203703703703703E-3</v>
+        <v>0.00162037037037037</v>
       </c>
       <c r="B19" s="1">
-        <v>0.87807870370370367</v>
+        <v>0.878078703703704</v>
       </c>
       <c r="C19">
         <v>90</v>
@@ -1374,12 +3338,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>1.736111111111111E-3</v>
+        <v>0.00173611111111111</v>
       </c>
       <c r="B20" s="1">
-        <v>0.8781944444444445</v>
+        <v>0.878194444444444</v>
       </c>
       <c r="C20">
         <v>95</v>
@@ -1427,12 +3391,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>1.8518518518518517E-3</v>
+        <v>0.00185185185185185</v>
       </c>
       <c r="B21" s="1">
-        <v>0.87831018518518522</v>
+        <v>0.878310185185185</v>
       </c>
       <c r="C21">
         <v>101</v>
@@ -1480,12 +3444,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>1.9675925925925928E-3</v>
+        <v>0.00196759259259259</v>
       </c>
       <c r="B22" s="1">
-        <v>0.87842592592592583</v>
+        <v>0.878425925925926</v>
       </c>
       <c r="C22">
         <v>98</v>
@@ -1533,12 +3497,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>2.0833333333333333E-3</v>
+        <v>0.00208333333333333</v>
       </c>
       <c r="B23" s="1">
-        <v>0.87854166666666667</v>
+        <v>0.878541666666667</v>
       </c>
       <c r="C23">
         <v>98</v>
@@ -1586,12 +3550,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>2.1990740740740742E-3</v>
+        <v>0.00219907407407407</v>
       </c>
       <c r="B24" s="1">
-        <v>0.87865740740740739</v>
+        <v>0.878657407407407</v>
       </c>
       <c r="C24">
         <v>95</v>
@@ -1639,12 +3603,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>2.3148148148148151E-3</v>
+        <v>0.00231481481481482</v>
       </c>
       <c r="B25" s="1">
-        <v>0.87877314814814822</v>
+        <v>0.878773148148148</v>
       </c>
       <c r="C25">
         <v>95</v>
@@ -1692,12 +3656,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35">
       <c r="A26" s="1">
-        <v>2.4305555555555556E-3</v>
+        <v>0.00243055555555556</v>
       </c>
       <c r="B26" s="1">
-        <v>0.87888888888888894</v>
+        <v>0.878888888888889</v>
       </c>
       <c r="C26">
         <v>92</v>
@@ -1746,23 +3710,23 @@
       </c>
       <c r="U26" s="2">
         <f>AVERAGE(C6:C26)</f>
-        <v>94.428571428571431</v>
+        <v>94.4285714285714</v>
       </c>
       <c r="V26" s="2">
         <f t="shared" ref="V26:AI26" si="0">AVERAGE(D6:D26)</f>
-        <v>57.428571428571431</v>
+        <v>57.4285714285714</v>
       </c>
       <c r="W26" s="2">
         <f t="shared" si="0"/>
-        <v>5.4942857142857138</v>
+        <v>5.49428571428571</v>
       </c>
       <c r="X26" s="2">
         <f t="shared" si="0"/>
-        <v>3.4085714285714284</v>
+        <v>3.40857142857143</v>
       </c>
       <c r="Y26" s="2">
         <f t="shared" si="0"/>
-        <v>61.666666666666664</v>
+        <v>61.6666666666667</v>
       </c>
       <c r="Z26" s="2">
         <f t="shared" si="0"/>
@@ -1770,7 +3734,7 @@
       </c>
       <c r="AA26" s="2">
         <f t="shared" si="0"/>
-        <v>136.9047619047619</v>
+        <v>136.904761904762</v>
       </c>
       <c r="AB26" s="2">
         <f t="shared" si="0"/>
@@ -1782,35 +3746,35 @@
       </c>
       <c r="AD26" s="2">
         <f t="shared" si="0"/>
-        <v>92.714285714285708</v>
+        <v>92.7142857142857</v>
       </c>
       <c r="AE26" s="2">
         <f t="shared" si="0"/>
-        <v>1167.8095238095239</v>
+        <v>1167.80952380952</v>
       </c>
       <c r="AF26" s="2">
         <f t="shared" si="0"/>
-        <v>1881.7142857142858</v>
+        <v>1881.71428571429</v>
       </c>
       <c r="AG26" s="2">
         <f t="shared" si="0"/>
-        <v>3.7628571428571433</v>
+        <v>3.76285714285714</v>
       </c>
       <c r="AH26" s="2">
         <f t="shared" si="0"/>
-        <v>126.23809523809524</v>
+        <v>126.238095238095</v>
       </c>
       <c r="AI26" s="2">
         <f t="shared" si="0"/>
-        <v>40.571428571428569</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+        <v>40.5714285714286</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35">
       <c r="A27" s="1">
-        <v>2.5462962962962961E-3</v>
+        <v>0.0025462962962963</v>
       </c>
       <c r="B27" s="1">
-        <v>0.87900462962962955</v>
+        <v>0.87900462962963</v>
       </c>
       <c r="C27">
         <v>91</v>
@@ -1873,12 +3837,12 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35">
       <c r="A28" s="1">
-        <v>2.6620370370370374E-3</v>
+        <v>0.00266203703703704</v>
       </c>
       <c r="B28" s="1">
-        <v>0.87912037037037039</v>
+        <v>0.87912037037037</v>
       </c>
       <c r="C28">
         <v>99</v>
@@ -1941,12 +3905,12 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35">
       <c r="A29" s="1">
-        <v>2.7777777777777779E-3</v>
+        <v>0.00277777777777778</v>
       </c>
       <c r="B29" s="1">
-        <v>0.87923611111111111</v>
+        <v>0.879236111111111</v>
       </c>
       <c r="C29">
         <v>95</v>
@@ -2009,12 +3973,12 @@
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35">
       <c r="A30" s="1">
-        <v>2.8935185185185188E-3</v>
+        <v>0.00289351851851852</v>
       </c>
       <c r="B30" s="1">
-        <v>0.87935185185185183</v>
+        <v>0.879351851851852</v>
       </c>
       <c r="C30">
         <v>84</v>
@@ -2023,7 +3987,7 @@
         <v>55</v>
       </c>
       <c r="E30">
-        <v>4.6900000000000004</v>
+        <v>4.69</v>
       </c>
       <c r="F30">
         <v>2.91</v>
@@ -2077,12 +4041,12 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35">
       <c r="A31" s="1">
-        <v>3.0092592592592588E-3</v>
+        <v>0.00300925925925926</v>
       </c>
       <c r="B31" s="1">
-        <v>0.87946759259259266</v>
+        <v>0.879467592592593</v>
       </c>
       <c r="C31">
         <v>91</v>
@@ -2091,7 +4055,7 @@
         <v>55</v>
       </c>
       <c r="E31">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="F31">
         <v>3.14</v>
@@ -2145,12 +4109,12 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35">
       <c r="A32" s="1">
-        <v>3.1249999999999997E-3</v>
+        <v>0.003125</v>
       </c>
       <c r="B32" s="1">
-        <v>0.87958333333333327</v>
+        <v>0.879583333333333</v>
       </c>
       <c r="C32">
         <v>100</v>
@@ -2213,12 +4177,12 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35">
       <c r="A33" s="1">
-        <v>3.2407407407407406E-3</v>
+        <v>0.00324074074074074</v>
       </c>
       <c r="B33" s="1">
-        <v>0.87969907407407411</v>
+        <v>0.879699074074074</v>
       </c>
       <c r="C33">
         <v>87</v>
@@ -2227,7 +4191,7 @@
         <v>55</v>
       </c>
       <c r="E33">
-        <v>4.8600000000000003</v>
+        <v>4.86</v>
       </c>
       <c r="F33">
         <v>3.01</v>
@@ -2281,12 +4245,12 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35">
       <c r="A34" s="1">
-        <v>3.3564814814814811E-3</v>
+        <v>0.00335648148148148</v>
       </c>
       <c r="B34" s="1">
-        <v>0.87981481481481483</v>
+        <v>0.879814814814815</v>
       </c>
       <c r="C34">
         <v>104</v>
@@ -2349,12 +4313,12 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35">
       <c r="A35" s="1">
-        <v>3.472222222222222E-3</v>
+        <v>0.00347222222222222</v>
       </c>
       <c r="B35" s="1">
-        <v>0.87993055555555555</v>
+        <v>0.879930555555556</v>
       </c>
       <c r="C35">
         <v>119</v>
@@ -2402,7 +4366,7 @@
         <v>36</v>
       </c>
       <c r="S35" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
@@ -2420,12 +4384,12 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35">
       <c r="A36" s="1">
-        <v>3.5879629629629629E-3</v>
+        <v>0.00358796296296296</v>
       </c>
       <c r="B36" s="1">
-        <v>0.88004629629629638</v>
+        <v>0.880046296296296</v>
       </c>
       <c r="C36">
         <v>122</v>
@@ -2434,7 +4398,7 @@
         <v>71</v>
       </c>
       <c r="E36">
-        <v>8.7799999999999994</v>
+        <v>8.78</v>
       </c>
       <c r="F36">
         <v>5.45</v>
@@ -2488,12 +4452,12 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35">
       <c r="A37" s="1">
-        <v>3.7037037037037034E-3</v>
+        <v>0.0037037037037037</v>
       </c>
       <c r="B37" s="1">
-        <v>0.88016203703703699</v>
+        <v>0.880162037037037</v>
       </c>
       <c r="C37">
         <v>119</v>
@@ -2502,7 +4466,7 @@
         <v>72</v>
       </c>
       <c r="E37">
-        <v>8.6199999999999992</v>
+        <v>8.62</v>
       </c>
       <c r="F37">
         <v>5.35</v>
@@ -2556,12 +4520,12 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35">
       <c r="A38" s="1">
-        <v>3.8194444444444443E-3</v>
+        <v>0.00381944444444444</v>
       </c>
       <c r="B38" s="1">
-        <v>0.88027777777777771</v>
+        <v>0.880277777777778</v>
       </c>
       <c r="C38">
         <v>120</v>
@@ -2624,12 +4588,12 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35">
       <c r="A39" s="1">
-        <v>3.9351851851851857E-3</v>
+        <v>0.00393518518518519</v>
       </c>
       <c r="B39" s="1">
-        <v>0.88039351851851855</v>
+        <v>0.880393518518519</v>
       </c>
       <c r="C39">
         <v>120</v>
@@ -2638,7 +4602,7 @@
         <v>71</v>
       </c>
       <c r="E39">
-        <v>8.6199999999999992</v>
+        <v>8.62</v>
       </c>
       <c r="F39">
         <v>5.35</v>
@@ -2692,12 +4656,12 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35">
       <c r="A40" s="1">
-        <v>4.0509259259259257E-3</v>
+        <v>0.00405092592592593</v>
       </c>
       <c r="B40" s="1">
-        <v>0.88050925925925927</v>
+        <v>0.880509259259259</v>
       </c>
       <c r="C40">
         <v>117</v>
@@ -2709,7 +4673,7 @@
         <v>8.09</v>
       </c>
       <c r="F40">
-        <v>5.0199999999999996</v>
+        <v>5.02</v>
       </c>
       <c r="G40">
         <v>67</v>
@@ -2760,12 +4724,12 @@
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35">
       <c r="A41" s="1">
-        <v>4.1666666666666666E-3</v>
+        <v>0.00416666666666667</v>
       </c>
       <c r="B41" s="1">
-        <v>0.8806250000000001</v>
+        <v>0.880625</v>
       </c>
       <c r="C41">
         <v>118</v>
@@ -2828,12 +4792,12 @@
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35">
       <c r="A42" s="1">
-        <v>4.2824074074074075E-3</v>
+        <v>0.00428240740740741</v>
       </c>
       <c r="B42" s="1">
-        <v>0.88074074074074071</v>
+        <v>0.880740740740741</v>
       </c>
       <c r="C42">
         <v>119</v>
@@ -2896,12 +4860,12 @@
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35">
       <c r="A43" s="1">
-        <v>4.3981481481481484E-3</v>
+        <v>0.00439814814814815</v>
       </c>
       <c r="B43" s="1">
-        <v>0.88085648148148143</v>
+        <v>0.880856481481481</v>
       </c>
       <c r="C43">
         <v>120</v>
@@ -2964,12 +4928,12 @@
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35">
       <c r="A44" s="1">
-        <v>4.5138888888888893E-3</v>
+        <v>0.00451388888888889</v>
       </c>
       <c r="B44" s="1">
-        <v>0.88097222222222227</v>
+        <v>0.880972222222222</v>
       </c>
       <c r="C44">
         <v>121</v>
@@ -3032,12 +4996,12 @@
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35">
       <c r="A45" s="1">
-        <v>4.6296296296296302E-3</v>
+        <v>0.00462962962962963</v>
       </c>
       <c r="B45" s="1">
-        <v>0.88108796296296299</v>
+        <v>0.881087962962963</v>
       </c>
       <c r="C45">
         <v>125</v>
@@ -3046,7 +5010,7 @@
         <v>69</v>
       </c>
       <c r="E45">
-        <v>8.6999999999999993</v>
+        <v>8.7</v>
       </c>
       <c r="F45">
         <v>5.4</v>
@@ -3100,12 +5064,12 @@
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35">
       <c r="A46" s="1">
-        <v>4.7453703703703703E-3</v>
+        <v>0.00474537037037037</v>
       </c>
       <c r="B46" s="1">
-        <v>0.8812037037037036</v>
+        <v>0.881203703703704</v>
       </c>
       <c r="C46">
         <v>126</v>
@@ -3114,7 +5078,7 @@
         <v>70</v>
       </c>
       <c r="E46">
-        <v>8.9499999999999993</v>
+        <v>8.95</v>
       </c>
       <c r="F46">
         <v>5.55</v>
@@ -3168,12 +5132,12 @@
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35">
       <c r="A47" s="1">
-        <v>4.8611111111111112E-3</v>
+        <v>0.00486111111111111</v>
       </c>
       <c r="B47" s="1">
-        <v>0.88131944444444443</v>
+        <v>0.881319444444444</v>
       </c>
       <c r="C47">
         <v>127</v>
@@ -3182,7 +5146,7 @@
         <v>71</v>
       </c>
       <c r="E47">
-        <v>9.0500000000000007</v>
+        <v>9.05</v>
       </c>
       <c r="F47">
         <v>5.62</v>
@@ -3236,12 +5200,12 @@
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35">
       <c r="A48" s="1">
-        <v>4.9768518518518521E-3</v>
+        <v>0.00497685185185185</v>
       </c>
       <c r="B48" s="1">
-        <v>0.88143518518518515</v>
+        <v>0.881435185185185</v>
       </c>
       <c r="C48">
         <v>131</v>
@@ -3250,7 +5214,7 @@
         <v>74</v>
       </c>
       <c r="E48">
-        <v>9.7799999999999994</v>
+        <v>9.78</v>
       </c>
       <c r="F48">
         <v>6.07</v>
@@ -3304,12 +5268,12 @@
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35">
       <c r="A49" s="1">
-        <v>5.0925925925925921E-3</v>
+        <v>0.00509259259259259</v>
       </c>
       <c r="B49" s="1">
-        <v>0.88155092592592599</v>
+        <v>0.881550925925926</v>
       </c>
       <c r="C49">
         <v>133</v>
@@ -3372,12 +5336,12 @@
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35">
       <c r="A50" s="1">
-        <v>5.208333333333333E-3</v>
+        <v>0.00520833333333333</v>
       </c>
       <c r="B50" s="1">
-        <v>0.88166666666666671</v>
+        <v>0.881666666666667</v>
       </c>
       <c r="C50">
         <v>133</v>
@@ -3440,12 +5404,12 @@
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35">
       <c r="A51" s="1">
-        <v>5.3240740740740748E-3</v>
+        <v>0.00532407407407407</v>
       </c>
       <c r="B51" s="1">
-        <v>0.88178240740740732</v>
+        <v>0.881782407407407</v>
       </c>
       <c r="C51">
         <v>135</v>
@@ -3508,12 +5472,12 @@
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35">
       <c r="A52" s="1">
-        <v>5.4398148148148149E-3</v>
+        <v>0.00543981481481481</v>
       </c>
       <c r="B52" s="1">
-        <v>0.88189814814814815</v>
+        <v>0.881898148148148</v>
       </c>
       <c r="C52">
         <v>134</v>
@@ -3522,7 +5486,7 @@
         <v>71</v>
       </c>
       <c r="E52">
-        <v>9.5399999999999991</v>
+        <v>9.54</v>
       </c>
       <c r="F52">
         <v>5.92</v>
@@ -3576,12 +5540,12 @@
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35">
       <c r="A53" s="1">
-        <v>5.5555555555555558E-3</v>
+        <v>0.00555555555555556</v>
       </c>
       <c r="B53" s="1">
-        <v>0.88201388888888888</v>
+        <v>0.882013888888889</v>
       </c>
       <c r="C53">
         <v>131</v>
@@ -3644,12 +5608,12 @@
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35">
       <c r="A54" s="1">
-        <v>5.6712962962962958E-3</v>
+        <v>0.0056712962962963</v>
       </c>
       <c r="B54" s="1">
-        <v>0.8821296296296296</v>
+        <v>0.88212962962963</v>
       </c>
       <c r="C54">
         <v>131</v>
@@ -3712,12 +5676,12 @@
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35">
       <c r="A55" s="1">
-        <v>5.7870370370370376E-3</v>
+        <v>0.00578703703703704</v>
       </c>
       <c r="B55" s="1">
-        <v>0.88224537037037043</v>
+        <v>0.88224537037037</v>
       </c>
       <c r="C55">
         <v>136</v>
@@ -3726,7 +5690,7 @@
         <v>74</v>
       </c>
       <c r="E55">
-        <v>10.210000000000001</v>
+        <v>10.21</v>
       </c>
       <c r="F55">
         <v>6.33</v>
@@ -3780,12 +5744,12 @@
       <c r="AH55" s="2"/>
       <c r="AI55" s="2"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35">
       <c r="A56" s="1">
-        <v>5.9027777777777776E-3</v>
+        <v>0.00590277777777778</v>
       </c>
       <c r="B56" s="1">
-        <v>0.88236111111111104</v>
+        <v>0.882361111111111</v>
       </c>
       <c r="C56">
         <v>140</v>
@@ -3848,12 +5812,12 @@
       <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35">
       <c r="A57" s="1">
-        <v>6.0185185185185177E-3</v>
+        <v>0.00601851851851852</v>
       </c>
       <c r="B57" s="1">
-        <v>0.88247685185185187</v>
+        <v>0.882476851851852</v>
       </c>
       <c r="C57">
         <v>138</v>
@@ -3916,12 +5880,12 @@
       <c r="AH57" s="2"/>
       <c r="AI57" s="2"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35">
       <c r="A58" s="1">
-        <v>6.1342592592592594E-3</v>
+        <v>0.00613425925925926</v>
       </c>
       <c r="B58" s="1">
-        <v>0.8825925925925926</v>
+        <v>0.882592592592593</v>
       </c>
       <c r="C58">
         <v>138</v>
@@ -3930,7 +5894,7 @@
         <v>73</v>
       </c>
       <c r="E58">
-        <v>10.130000000000001</v>
+        <v>10.13</v>
       </c>
       <c r="F58">
         <v>6.28</v>
@@ -3984,12 +5948,12 @@
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35">
       <c r="A59" s="1">
-        <v>6.2499999999999995E-3</v>
+        <v>0.00625</v>
       </c>
       <c r="B59" s="1">
-        <v>0.88270833333333332</v>
+        <v>0.882708333333333</v>
       </c>
       <c r="C59">
         <v>143</v>
@@ -4052,12 +6016,12 @@
       <c r="AH59" s="2"/>
       <c r="AI59" s="2"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35">
       <c r="A60" s="1">
-        <v>6.3657407407407404E-3</v>
+        <v>0.00636574074074074</v>
       </c>
       <c r="B60" s="1">
-        <v>0.88282407407407415</v>
+        <v>0.882824074074074</v>
       </c>
       <c r="C60">
         <v>145</v>
@@ -4120,12 +6084,12 @@
       <c r="AH60" s="2"/>
       <c r="AI60" s="2"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35">
       <c r="A61" s="1">
-        <v>6.4814814814814813E-3</v>
+        <v>0.00648148148148148</v>
       </c>
       <c r="B61" s="1">
-        <v>0.88293981481481476</v>
+        <v>0.882939814814815</v>
       </c>
       <c r="C61">
         <v>146</v>
@@ -4188,12 +6152,12 @@
       <c r="AH61" s="2"/>
       <c r="AI61" s="2"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35">
       <c r="A62" s="1">
-        <v>6.5972222222222222E-3</v>
+        <v>0.00659722222222222</v>
       </c>
       <c r="B62" s="1">
-        <v>0.88305555555555548</v>
+        <v>0.883055555555555</v>
       </c>
       <c r="C62">
         <v>146</v>
@@ -4256,12 +6220,12 @@
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35">
       <c r="A63" s="1">
-        <v>6.7129629629629622E-3</v>
+        <v>0.00671296296296296</v>
       </c>
       <c r="B63" s="1">
-        <v>0.88317129629629632</v>
+        <v>0.883171296296296</v>
       </c>
       <c r="C63">
         <v>147</v>
@@ -4324,12 +6288,12 @@
       <c r="AH63" s="2"/>
       <c r="AI63" s="2"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35">
       <c r="A64" s="1">
-        <v>6.828703703703704E-3</v>
+        <v>0.0068287037037037</v>
       </c>
       <c r="B64" s="1">
-        <v>0.88328703703703704</v>
+        <v>0.883287037037037</v>
       </c>
       <c r="C64">
         <v>149</v>
@@ -4392,12 +6356,12 @@
       <c r="AH64" s="2"/>
       <c r="AI64" s="2"/>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35">
       <c r="A65" s="1">
-        <v>6.9444444444444441E-3</v>
+        <v>0.00694444444444444</v>
       </c>
       <c r="B65" s="1">
-        <v>0.88340277777777787</v>
+        <v>0.883402777777778</v>
       </c>
       <c r="C65">
         <v>150</v>
@@ -4460,12 +6424,12 @@
       <c r="AH65" s="2"/>
       <c r="AI65" s="2"/>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35">
       <c r="A66" s="1">
-        <v>7.0601851851851841E-3</v>
+        <v>0.00706018518518518</v>
       </c>
       <c r="B66" s="1">
-        <v>0.88351851851851848</v>
+        <v>0.883518518518518</v>
       </c>
       <c r="C66">
         <v>149</v>
@@ -4528,12 +6492,12 @@
       <c r="AH66" s="2"/>
       <c r="AI66" s="2"/>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35">
       <c r="A67" s="1">
-        <v>7.1759259259259259E-3</v>
+        <v>0.00717592592592593</v>
       </c>
       <c r="B67" s="1">
-        <v>0.8836342592592592</v>
+        <v>0.883634259259259</v>
       </c>
       <c r="C67">
         <v>151</v>
@@ -4581,7 +6545,7 @@
         <v>29</v>
       </c>
       <c r="S67" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
@@ -4599,12 +6563,12 @@
       <c r="AH67" s="2"/>
       <c r="AI67" s="2"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35">
       <c r="A68" s="1">
-        <v>7.2916666666666659E-3</v>
+        <v>0.00729166666666667</v>
       </c>
       <c r="B68" s="1">
-        <v>0.88375000000000004</v>
+        <v>0.88375</v>
       </c>
       <c r="C68">
         <v>157</v>
@@ -4667,12 +6631,12 @@
       <c r="AH68" s="2"/>
       <c r="AI68" s="2"/>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35">
       <c r="A69" s="1">
-        <v>7.4074074074074068E-3</v>
+        <v>0.00740740740740741</v>
       </c>
       <c r="B69" s="1">
-        <v>0.88386574074074076</v>
+        <v>0.883865740740741</v>
       </c>
       <c r="C69">
         <v>159</v>
@@ -4735,12 +6699,12 @@
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35">
       <c r="A70" s="1">
-        <v>7.5231481481481477E-3</v>
+        <v>0.00752314814814815</v>
       </c>
       <c r="B70" s="1">
-        <v>0.88398148148148159</v>
+        <v>0.883981481481482</v>
       </c>
       <c r="C70">
         <v>162</v>
@@ -4803,12 +6767,12 @@
       <c r="AH70" s="2"/>
       <c r="AI70" s="2"/>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35">
       <c r="A71" s="1">
-        <v>7.6388888888888886E-3</v>
+        <v>0.00763888888888889</v>
       </c>
       <c r="B71" s="1">
-        <v>0.8840972222222222</v>
+        <v>0.884097222222222</v>
       </c>
       <c r="C71">
         <v>165</v>
@@ -4871,12 +6835,12 @@
       <c r="AH71" s="2"/>
       <c r="AI71" s="2"/>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35">
       <c r="A72" s="1">
-        <v>7.7546296296296287E-3</v>
+        <v>0.00775462962962963</v>
       </c>
       <c r="B72" s="1">
-        <v>0.88421296296296292</v>
+        <v>0.884212962962963</v>
       </c>
       <c r="C72">
         <v>168</v>
@@ -4939,12 +6903,12 @@
       <c r="AH72" s="2"/>
       <c r="AI72" s="2"/>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35">
       <c r="A73" s="1">
-        <v>7.8703703703703713E-3</v>
+        <v>0.00787037037037037</v>
       </c>
       <c r="B73" s="1">
-        <v>0.88432870370370376</v>
+        <v>0.884328703703704</v>
       </c>
       <c r="C73">
         <v>170</v>
@@ -4983,7 +6947,7 @@
         <v>832</v>
       </c>
       <c r="O73">
-        <v>8.4600000000000009</v>
+        <v>8.46</v>
       </c>
       <c r="P73">
         <v>125</v>
@@ -5007,12 +6971,12 @@
       <c r="AH73" s="2"/>
       <c r="AI73" s="2"/>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35">
       <c r="A74" s="1">
-        <v>7.9861111111111122E-3</v>
+        <v>0.00798611111111111</v>
       </c>
       <c r="B74" s="1">
-        <v>0.88444444444444448</v>
+        <v>0.884444444444444</v>
       </c>
       <c r="C74">
         <v>171</v>
@@ -5075,12 +7039,12 @@
       <c r="AH74" s="2"/>
       <c r="AI74" s="2"/>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35">
       <c r="A75" s="1">
-        <v>8.1018518518518514E-3</v>
+        <v>0.00810185185185185</v>
       </c>
       <c r="B75" s="1">
-        <v>0.88456018518518509</v>
+        <v>0.884560185185185</v>
       </c>
       <c r="C75">
         <v>175</v>
@@ -5143,12 +7107,12 @@
       <c r="AH75" s="2"/>
       <c r="AI75" s="2"/>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35">
       <c r="A76" s="1">
-        <v>8.217592592592594E-3</v>
+        <v>0.00821759259259259</v>
       </c>
       <c r="B76" s="1">
-        <v>0.88467592592592592</v>
+        <v>0.884675925925926</v>
       </c>
       <c r="C76">
         <v>178</v>
@@ -5211,12 +7175,12 @@
       <c r="AH76" s="2"/>
       <c r="AI76" s="2"/>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35">
       <c r="A77" s="1">
-        <v>8.3333333333333332E-3</v>
+        <v>0.00833333333333333</v>
       </c>
       <c r="B77" s="1">
-        <v>0.88479166666666664</v>
+        <v>0.884791666666667</v>
       </c>
       <c r="C77">
         <v>179</v>
@@ -5264,7 +7228,7 @@
         <v>29</v>
       </c>
       <c r="S77" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U77" s="2">
         <f>AVERAGE(C68:C77)</f>
@@ -5272,15 +7236,15 @@
       </c>
       <c r="V77" s="2">
         <f t="shared" ref="V77:AI77" si="1">AVERAGE(D68:D77)</f>
-        <v>72.099999999999994</v>
+        <v>72.1</v>
       </c>
       <c r="W77" s="2">
         <f t="shared" si="1"/>
-        <v>12.241000000000001</v>
+        <v>12.241</v>
       </c>
       <c r="X77" s="2">
         <f t="shared" si="1"/>
-        <v>7.5959999999999992</v>
+        <v>7.596</v>
       </c>
       <c r="Y77" s="2">
         <f t="shared" si="1"/>
@@ -5288,7 +7252,7 @@
       </c>
       <c r="Z77" s="2">
         <f t="shared" si="1"/>
-        <v>284.89999999999998</v>
+        <v>284.9</v>
       </c>
       <c r="AA77" s="2">
         <f t="shared" si="1"/>
@@ -5316,7 +7280,7 @@
       </c>
       <c r="AG77" s="2">
         <f t="shared" si="1"/>
-        <v>8.3859999999999992</v>
+        <v>8.386</v>
       </c>
       <c r="AH77" s="2">
         <f t="shared" si="1"/>
@@ -5327,12 +7291,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35">
       <c r="A78" s="1">
-        <v>8.4490740740740741E-3</v>
+        <v>0.00844907407407407</v>
       </c>
       <c r="B78" s="1">
-        <v>0.88490740740740748</v>
+        <v>0.884907407407407</v>
       </c>
       <c r="C78">
         <v>180</v>
@@ -5371,7 +7335,7 @@
         <v>771</v>
       </c>
       <c r="O78">
-        <v>9.1199999999999992</v>
+        <v>9.12</v>
       </c>
       <c r="P78">
         <v>110</v>
@@ -5395,12 +7359,12 @@
       <c r="AH78" s="2"/>
       <c r="AI78" s="2"/>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35">
       <c r="A79" s="1">
-        <v>8.564814814814815E-3</v>
+        <v>0.00856481481481482</v>
       </c>
       <c r="B79" s="1">
-        <v>0.8850231481481482</v>
+        <v>0.885023148148148</v>
       </c>
       <c r="C79">
         <v>181</v>
@@ -5463,12 +7427,12 @@
       <c r="AH79" s="2"/>
       <c r="AI79" s="2"/>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35">
       <c r="A80" s="1">
-        <v>8.6805555555555559E-3</v>
+        <v>0.00868055555555556</v>
       </c>
       <c r="B80" s="1">
-        <v>0.88513888888888881</v>
+        <v>0.885138888888889</v>
       </c>
       <c r="C80">
         <v>181</v>
@@ -5517,71 +7481,71 @@
       </c>
       <c r="U80" s="2">
         <f>AVERAGE(C68:C80)</f>
-        <v>171.23076923076923</v>
+        <v>171.230769230769</v>
       </c>
       <c r="V80" s="2">
         <f t="shared" ref="V80:AI80" si="2">AVERAGE(D68:D80)</f>
-        <v>72.538461538461533</v>
+        <v>72.5384615384615</v>
       </c>
       <c r="W80" s="2">
         <f t="shared" si="2"/>
-        <v>12.533846153846154</v>
+        <v>12.5338461538462</v>
       </c>
       <c r="X80" s="2">
         <f t="shared" si="2"/>
-        <v>7.7784615384615385</v>
+        <v>7.77846153846154</v>
       </c>
       <c r="Y80" s="2">
         <f t="shared" si="2"/>
-        <v>67.84615384615384</v>
+        <v>67.8461538461538</v>
       </c>
       <c r="Z80" s="2">
         <f t="shared" si="2"/>
-        <v>277.84615384615387</v>
+        <v>277.846153846154</v>
       </c>
       <c r="AA80" s="2">
         <f t="shared" si="2"/>
-        <v>202.23076923076923</v>
+        <v>202.230769230769</v>
       </c>
       <c r="AB80" s="2">
         <f t="shared" si="2"/>
-        <v>109.46153846153847</v>
+        <v>109.461538461538</v>
       </c>
       <c r="AC80" s="2">
         <f t="shared" si="2"/>
-        <v>74.769230769230774</v>
+        <v>74.7692307692308</v>
       </c>
       <c r="AD80" s="2">
         <f t="shared" si="2"/>
-        <v>106.38461538461539</v>
+        <v>106.384615384615</v>
       </c>
       <c r="AE80" s="2">
         <f t="shared" si="2"/>
-        <v>509.46153846153845</v>
+        <v>509.461538461538</v>
       </c>
       <c r="AF80" s="2">
         <f t="shared" si="2"/>
-        <v>821.15384615384619</v>
+        <v>821.153846153846</v>
       </c>
       <c r="AG80" s="2">
         <f t="shared" si="2"/>
-        <v>8.5876923076923095</v>
+        <v>8.58769230769231</v>
       </c>
       <c r="AH80" s="2">
         <f t="shared" si="2"/>
-        <v>122.46153846153847</v>
+        <v>122.461538461538</v>
       </c>
       <c r="AI80" s="2">
         <f t="shared" si="2"/>
-        <v>30.615384615384617</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+        <v>30.6153846153846</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" s="1">
-        <v>8.7962962962962968E-3</v>
+        <v>0.0087962962962963</v>
       </c>
       <c r="B81" s="1">
-        <v>0.88525462962962964</v>
+        <v>0.88525462962963</v>
       </c>
       <c r="C81">
         <v>182</v>
@@ -5593,7 +7557,7 @@
         <v>13.74</v>
       </c>
       <c r="F81">
-        <v>8.5299999999999994</v>
+        <v>8.53</v>
       </c>
       <c r="G81">
         <v>69</v>
@@ -5629,12 +7593,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17">
       <c r="A82" s="1">
-        <v>8.9120370370370378E-3</v>
+        <v>0.00891203703703704</v>
       </c>
       <c r="B82" s="1">
-        <v>0.88537037037037036</v>
+        <v>0.88537037037037</v>
       </c>
       <c r="C82">
         <v>179</v>
@@ -5682,12 +7646,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19">
       <c r="A83" s="1">
-        <v>9.0277777777777787E-3</v>
+        <v>0.00902777777777778</v>
       </c>
       <c r="B83" s="1">
-        <v>0.88548611111111108</v>
+        <v>0.885486111111111</v>
       </c>
       <c r="C83">
         <v>174</v>
@@ -5699,7 +7663,7 @@
         <v>13.24</v>
       </c>
       <c r="F83">
-        <v>8.2200000000000006</v>
+        <v>8.22</v>
       </c>
       <c r="G83">
         <v>67</v>
@@ -5735,15 +7699,15 @@
         <v>36</v>
       </c>
       <c r="S83" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84" s="1">
-        <v>9.1435185185185178E-3</v>
+        <v>0.00914351851851852</v>
       </c>
       <c r="B84" s="1">
-        <v>0.88560185185185192</v>
+        <v>0.885601851851852</v>
       </c>
       <c r="C84">
         <v>169</v>
@@ -5791,12 +7755,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17">
       <c r="A85" s="1">
-        <v>9.2592592592592605E-3</v>
+        <v>0.00925925925925926</v>
       </c>
       <c r="B85" s="1">
-        <v>0.88571759259259253</v>
+        <v>0.885717592592593</v>
       </c>
       <c r="C85">
         <v>165</v>
@@ -5844,12 +7808,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17">
       <c r="A86" s="1">
-        <v>9.3749999999999997E-3</v>
+        <v>0.009375</v>
       </c>
       <c r="B86" s="1">
-        <v>0.88583333333333336</v>
+        <v>0.885833333333333</v>
       </c>
       <c r="C86">
         <v>166</v>
@@ -5888,7 +7852,7 @@
         <v>859</v>
       </c>
       <c r="O86">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="P86">
         <v>113</v>
@@ -5897,12 +7861,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17">
       <c r="A87" s="1">
-        <v>9.4907407407407406E-3</v>
+        <v>0.00949074074074074</v>
       </c>
       <c r="B87" s="1">
-        <v>0.88594907407407408</v>
+        <v>0.885949074074074</v>
       </c>
       <c r="C87">
         <v>164</v>
@@ -5941,7 +7905,7 @@
         <v>850</v>
       </c>
       <c r="O87">
-        <v>8.2799999999999994</v>
+        <v>8.28</v>
       </c>
       <c r="P87">
         <v>115</v>
@@ -5950,36 +7914,46 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/22Sept2013_Xining_Physioflow_X5X8/X6 at 2200.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/22Sept2013_Xining_Physioflow_X5X8/X6 at 2200.xlsx
@@ -1,22 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\check\QT_VO2max_Data\Xining_VO2_QT_values_revisited_20June2019\VO2_Physioflow_Avg_Match_Watts_Dean\physioflow\22Sept2013_Xining_Physioflow_X5X8\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9792974-494B-4824-A76B-57159BA37A5A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16391" windowHeight="5412"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>X6</t>
   </si>
@@ -152,18 +166,15 @@
   <si>
     <t>---------------</t>
   </si>
+  <si>
+    <t>max</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,353 +182,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -525,322 +199,36 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -852,7 +240,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -878,6 +265,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -902,260 +290,257 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$6:$A$87</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="82"/>
-                <c:pt idx="0" c:formatCode="h:mm:ss">
-                  <c:v>0.000115740740740741</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="h:mm:ss">
-                  <c:v>0.000231481481481481</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="h:mm:ss">
-                  <c:v>0.000347222222222222</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="h:mm:ss">
-                  <c:v>0.000462962962962963</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm:ss">
-                  <c:v>0.000578703703703704</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm:ss">
-                  <c:v>0.000694444444444444</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm:ss">
-                  <c:v>0.000810185185185185</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm:ss">
-                  <c:v>0.000925925925925926</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="h:mm:ss">
-                  <c:v>0.00104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="h:mm:ss">
-                  <c:v>0.00115740740740741</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="h:mm:ss">
-                  <c:v>0.00127314814814815</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="h:mm:ss">
-                  <c:v>0.00138888888888889</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="h:mm:ss">
-                  <c:v>0.00150462962962963</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="h:mm:ss">
-                  <c:v>0.00162037037037037</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="h:mm:ss">
-                  <c:v>0.00173611111111111</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="h:mm:ss">
-                  <c:v>0.00185185185185185</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="h:mm:ss">
-                  <c:v>0.00196759259259259</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="h:mm:ss">
-                  <c:v>0.00208333333333333</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="h:mm:ss">
-                  <c:v>0.00219907407407407</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="h:mm:ss">
-                  <c:v>0.00231481481481482</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="h:mm:ss">
-                  <c:v>0.00243055555555556</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="h:mm:ss">
-                  <c:v>0.0025462962962963</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="h:mm:ss">
-                  <c:v>0.00266203703703704</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="h:mm:ss">
-                  <c:v>0.00277777777777778</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="h:mm:ss">
-                  <c:v>0.00289351851851852</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="h:mm:ss">
-                  <c:v>0.00300925925925926</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="h:mm:ss">
-                  <c:v>0.003125</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="h:mm:ss">
-                  <c:v>0.00324074074074074</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="h:mm:ss">
-                  <c:v>0.00335648148148148</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="h:mm:ss">
-                  <c:v>0.00347222222222222</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="h:mm:ss">
-                  <c:v>0.00358796296296296</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="h:mm:ss">
-                  <c:v>0.0037037037037037</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="h:mm:ss">
-                  <c:v>0.00381944444444444</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="h:mm:ss">
-                  <c:v>0.00393518518518519</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="h:mm:ss">
-                  <c:v>0.00405092592592593</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="h:mm:ss">
-                  <c:v>0.00416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="h:mm:ss">
-                  <c:v>0.00428240740740741</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="h:mm:ss">
-                  <c:v>0.00439814814814815</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="h:mm:ss">
-                  <c:v>0.00451388888888889</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="h:mm:ss">
-                  <c:v>0.00462962962962963</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="h:mm:ss">
-                  <c:v>0.00474537037037037</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="h:mm:ss">
-                  <c:v>0.00486111111111111</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="h:mm:ss">
-                  <c:v>0.00497685185185185</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="h:mm:ss">
-                  <c:v>0.00509259259259259</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="h:mm:ss">
-                  <c:v>0.00520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="h:mm:ss">
-                  <c:v>0.00532407407407407</c:v>
-                </c:pt>
-                <c:pt idx="46" c:formatCode="h:mm:ss">
-                  <c:v>0.00543981481481481</c:v>
-                </c:pt>
-                <c:pt idx="47" c:formatCode="h:mm:ss">
-                  <c:v>0.00555555555555556</c:v>
-                </c:pt>
-                <c:pt idx="48" c:formatCode="h:mm:ss">
-                  <c:v>0.0056712962962963</c:v>
-                </c:pt>
-                <c:pt idx="49" c:formatCode="h:mm:ss">
-                  <c:v>0.00578703703703704</c:v>
-                </c:pt>
-                <c:pt idx="50" c:formatCode="h:mm:ss">
-                  <c:v>0.00590277777777778</c:v>
-                </c:pt>
-                <c:pt idx="51" c:formatCode="h:mm:ss">
-                  <c:v>0.00601851851851852</c:v>
-                </c:pt>
-                <c:pt idx="52" c:formatCode="h:mm:ss">
-                  <c:v>0.00613425925925926</c:v>
-                </c:pt>
-                <c:pt idx="53" c:formatCode="h:mm:ss">
-                  <c:v>0.00625</c:v>
-                </c:pt>
-                <c:pt idx="54" c:formatCode="h:mm:ss">
-                  <c:v>0.00636574074074074</c:v>
-                </c:pt>
-                <c:pt idx="55" c:formatCode="h:mm:ss">
-                  <c:v>0.00648148148148148</c:v>
-                </c:pt>
-                <c:pt idx="56" c:formatCode="h:mm:ss">
-                  <c:v>0.00659722222222222</c:v>
-                </c:pt>
-                <c:pt idx="57" c:formatCode="h:mm:ss">
-                  <c:v>0.00671296296296296</c:v>
-                </c:pt>
-                <c:pt idx="58" c:formatCode="h:mm:ss">
-                  <c:v>0.0068287037037037</c:v>
-                </c:pt>
-                <c:pt idx="59" c:formatCode="h:mm:ss">
-                  <c:v>0.00694444444444444</c:v>
-                </c:pt>
-                <c:pt idx="60" c:formatCode="h:mm:ss">
-                  <c:v>0.00706018518518518</c:v>
-                </c:pt>
-                <c:pt idx="61" c:formatCode="h:mm:ss">
-                  <c:v>0.00717592592592593</c:v>
-                </c:pt>
-                <c:pt idx="62" c:formatCode="h:mm:ss">
-                  <c:v>0.00729166666666667</c:v>
-                </c:pt>
-                <c:pt idx="63" c:formatCode="h:mm:ss">
-                  <c:v>0.00740740740740741</c:v>
-                </c:pt>
-                <c:pt idx="64" c:formatCode="h:mm:ss">
-                  <c:v>0.00752314814814815</c:v>
-                </c:pt>
-                <c:pt idx="65" c:formatCode="h:mm:ss">
-                  <c:v>0.00763888888888889</c:v>
-                </c:pt>
-                <c:pt idx="66" c:formatCode="h:mm:ss">
-                  <c:v>0.00775462962962963</c:v>
-                </c:pt>
-                <c:pt idx="67" c:formatCode="h:mm:ss">
-                  <c:v>0.00787037037037037</c:v>
-                </c:pt>
-                <c:pt idx="68" c:formatCode="h:mm:ss">
-                  <c:v>0.00798611111111111</c:v>
-                </c:pt>
-                <c:pt idx="69" c:formatCode="h:mm:ss">
-                  <c:v>0.00810185185185185</c:v>
-                </c:pt>
-                <c:pt idx="70" c:formatCode="h:mm:ss">
-                  <c:v>0.00821759259259259</c:v>
-                </c:pt>
-                <c:pt idx="71" c:formatCode="h:mm:ss">
-                  <c:v>0.00833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="72" c:formatCode="h:mm:ss">
-                  <c:v>0.00844907407407407</c:v>
-                </c:pt>
-                <c:pt idx="73" c:formatCode="h:mm:ss">
-                  <c:v>0.00856481481481482</c:v>
-                </c:pt>
-                <c:pt idx="74" c:formatCode="h:mm:ss">
-                  <c:v>0.00868055555555556</c:v>
-                </c:pt>
-                <c:pt idx="75" c:formatCode="h:mm:ss">
-                  <c:v>0.0087962962962963</c:v>
-                </c:pt>
-                <c:pt idx="76" c:formatCode="h:mm:ss">
-                  <c:v>0.00891203703703704</c:v>
-                </c:pt>
-                <c:pt idx="77" c:formatCode="h:mm:ss">
-                  <c:v>0.00902777777777778</c:v>
-                </c:pt>
-                <c:pt idx="78" c:formatCode="h:mm:ss">
-                  <c:v>0.00914351851851852</c:v>
-                </c:pt>
-                <c:pt idx="79" c:formatCode="h:mm:ss">
-                  <c:v>0.00925925925925926</c:v>
-                </c:pt>
-                <c:pt idx="80" c:formatCode="h:mm:ss">
-                  <c:v>0.009375</c:v>
-                </c:pt>
-                <c:pt idx="81" c:formatCode="h:mm:ss">
-                  <c:v>0.00949074074074074</c:v>
+                <c:pt idx="0">
+                  <c:v>1.15740740740741E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.31481481481481E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4722222222222202E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6296296296296298E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.78703703703704E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9444444444444404E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1018518518518505E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2592592592592596E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0416666666666699E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1574074074074099E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.27314814814815E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.38888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5046296296296301E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6203703703703701E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7361111111111099E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.85185185185185E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9675925925925898E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0833333333333298E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1990740740740699E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.3148148148148199E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4305555555555599E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5462962962963E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.66203703703704E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7777777777777801E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.8935185185185201E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.0092592592592601E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.2407407407407402E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3564814814814798E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4722222222222199E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5879629629629599E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.7037037037036999E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.81944444444444E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.93518518518519E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.05092592592593E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.1666666666666701E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.2824074074074101E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.3981481481481502E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.5138888888888902E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.6296296296296302E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.7453703703703703E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.8611111111111103E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.9768518518518504E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.0925925925925904E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.2083333333333296E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.3240740740740696E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.4398148148148097E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.5555555555555601E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.6712962962963001E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.7870370370370402E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.9027777777777802E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.0185185185185203E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.1342592592592603E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.3657407407407404E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.4814814814814804E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.5972222222222196E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.7129629629629596E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.8287037037036997E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.9444444444444397E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.0601851851851798E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.1759259259259302E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.2916666666666703E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.4074074074074103E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.5231481481481503E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.6388888888888904E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.7546296296296304E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.8703703703703696E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.9861111111111105E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.1018518518518497E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.2175925925925906E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.3333333333333297E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.4490740740740707E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.5648148148148202E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.6805555555555594E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.7962962962963003E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.9120370370370395E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.0277777777777804E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.1435185185185196E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.2592592592592605E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.3749999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.4907407407407406E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1200,7 +585,7 @@
                   <c:v>5.23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.1</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>5.25</c:v>
@@ -1239,16 +624,16 @@
                   <c:v>5.68</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.69</c:v>
+                  <c:v>4.6900000000000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.06</c:v>
+                  <c:v>5.0599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5.83</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.86</c:v>
+                  <c:v>4.8600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>6.5</c:v>
@@ -1257,16 +642,16 @@
                   <c:v>8.15</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.78</c:v>
+                  <c:v>8.7799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.62</c:v>
+                  <c:v>8.6199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>8.61</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.62</c:v>
+                  <c:v>8.6199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>8.09</c:v>
@@ -1284,16 +669,16 @@
                   <c:v>8.59</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.7</c:v>
+                  <c:v>8.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8.95</c:v>
+                  <c:v>8.9499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.05</c:v>
+                  <c:v>9.0500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9.78</c:v>
+                  <c:v>9.7799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>9.89</c:v>
@@ -1305,7 +690,7 @@
                   <c:v>9.68</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>9.54</c:v>
+                  <c:v>9.5399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>9.51</c:v>
@@ -1314,7 +699,7 @@
                   <c:v>9.77</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>10.21</c:v>
+                  <c:v>10.210000000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>10.62</c:v>
@@ -1323,7 +708,7 @@
                   <c:v>10.45</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>10.13</c:v>
+                  <c:v>10.130000000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>10.53</c:v>
@@ -1416,6 +801,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D4C-434D-99B9-EAD8D7F31598}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1425,7 +815,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="196131550"/>
         <c:axId val="733318078"/>
@@ -1437,6 +826,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1470,6 +860,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="733318078"/>
@@ -1528,6 +919,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="196131550"/>
@@ -1568,6 +960,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2135,28 +1528,34 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>157480</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>73660</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>103052</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>46446</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>408940</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>73660</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>354512</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>46446</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5712460" y="2633980"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2450,21 +1849,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68:E80"/>
+    <sheetView tabSelected="1" topLeftCell="C61" zoomScale="121" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2472,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2590,12 +1989,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:35">
       <c r="A6" s="1">
-        <v>0.000115740740740741</v>
+        <v>1.15740740740741E-4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.876574074074074</v>
+        <v>0.87657407407407395</v>
       </c>
       <c r="C6">
         <v>102</v>
@@ -2634,7 +2033,7 @@
         <v>1602</v>
       </c>
       <c r="O6">
-        <v>4.39</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="P6">
         <v>123</v>
@@ -2643,9 +2042,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:35">
       <c r="A7" s="1">
-        <v>0.000231481481481481</v>
+        <v>2.31481481481481E-4</v>
       </c>
       <c r="B7" s="1">
         <v>0.876689814814815</v>
@@ -2699,12 +2098,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:35">
       <c r="A8" s="1">
-        <v>0.000347222222222222</v>
+        <v>3.4722222222222202E-4</v>
       </c>
       <c r="B8" s="1">
-        <v>0.876805555555556</v>
+        <v>0.87680555555555595</v>
       </c>
       <c r="C8">
         <v>93</v>
@@ -2752,9 +2151,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:35">
       <c r="A9" s="1">
-        <v>0.000462962962962963</v>
+        <v>4.6296296296296298E-4</v>
       </c>
       <c r="B9" s="1">
         <v>0.876921296296296</v>
@@ -2805,12 +2204,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:35">
       <c r="A10" s="1">
-        <v>0.000578703703703704</v>
+        <v>5.78703703703704E-4</v>
       </c>
       <c r="B10" s="1">
-        <v>0.877037037037037</v>
+        <v>0.87703703703703695</v>
       </c>
       <c r="C10">
         <v>91</v>
@@ -2858,9 +2257,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:35">
       <c r="A11" s="1">
-        <v>0.000694444444444444</v>
+        <v>6.9444444444444404E-4</v>
       </c>
       <c r="B11" s="1">
         <v>0.877152777777778</v>
@@ -2911,12 +2310,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:35">
       <c r="A12" s="1">
-        <v>0.000810185185185185</v>
+        <v>8.1018518518518505E-4</v>
       </c>
       <c r="B12" s="1">
-        <v>0.877268518518519</v>
+        <v>0.87726851851851895</v>
       </c>
       <c r="C12">
         <v>93</v>
@@ -2964,9 +2363,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:35">
       <c r="A13" s="1">
-        <v>0.000925925925925926</v>
+        <v>9.2592592592592596E-4</v>
       </c>
       <c r="B13" s="1">
         <v>0.877384259259259</v>
@@ -3020,12 +2419,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:35">
       <c r="A14" s="1">
-        <v>0.00104166666666667</v>
+        <v>1.0416666666666699E-3</v>
       </c>
       <c r="B14" s="1">
-        <v>0.8775</v>
+        <v>0.87749999999999995</v>
       </c>
       <c r="C14">
         <v>90</v>
@@ -3073,9 +2472,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:35">
       <c r="A15" s="1">
-        <v>0.00115740740740741</v>
+        <v>1.1574074074074099E-3</v>
       </c>
       <c r="B15" s="1">
         <v>0.877615740740741</v>
@@ -3126,12 +2525,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:35">
       <c r="A16" s="1">
-        <v>0.00127314814814815</v>
+        <v>1.27314814814815E-3</v>
       </c>
       <c r="B16" s="1">
-        <v>0.877731481481482</v>
+        <v>0.87773148148148195</v>
       </c>
       <c r="C16">
         <v>96</v>
@@ -3179,9 +2578,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:35">
       <c r="A17" s="1">
-        <v>0.00138888888888889</v>
+        <v>1.38888888888889E-3</v>
       </c>
       <c r="B17" s="1">
         <v>0.877847222222222</v>
@@ -3193,7 +2592,7 @@
         <v>53</v>
       </c>
       <c r="E17">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F17">
         <v>3.16</v>
@@ -3232,12 +2631,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:35">
       <c r="A18" s="1">
-        <v>0.00150462962962963</v>
+        <v>1.5046296296296301E-3</v>
       </c>
       <c r="B18" s="1">
-        <v>0.877962962962963</v>
+        <v>0.87796296296296295</v>
       </c>
       <c r="C18">
         <v>96</v>
@@ -3285,9 +2684,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:35">
       <c r="A19" s="1">
-        <v>0.00162037037037037</v>
+        <v>1.6203703703703701E-3</v>
       </c>
       <c r="B19" s="1">
         <v>0.878078703703704</v>
@@ -3338,12 +2737,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:35">
       <c r="A20" s="1">
-        <v>0.00173611111111111</v>
+        <v>1.7361111111111099E-3</v>
       </c>
       <c r="B20" s="1">
-        <v>0.878194444444444</v>
+        <v>0.87819444444444394</v>
       </c>
       <c r="C20">
         <v>95</v>
@@ -3391,9 +2790,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:35">
       <c r="A21" s="1">
-        <v>0.00185185185185185</v>
+        <v>1.85185185185185E-3</v>
       </c>
       <c r="B21" s="1">
         <v>0.878310185185185</v>
@@ -3444,12 +2843,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:35">
       <c r="A22" s="1">
-        <v>0.00196759259259259</v>
+        <v>1.9675925925925898E-3</v>
       </c>
       <c r="B22" s="1">
-        <v>0.878425925925926</v>
+        <v>0.87842592592592605</v>
       </c>
       <c r="C22">
         <v>98</v>
@@ -3497,9 +2896,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:35">
       <c r="A23" s="1">
-        <v>0.00208333333333333</v>
+        <v>2.0833333333333298E-3</v>
       </c>
       <c r="B23" s="1">
         <v>0.878541666666667</v>
@@ -3550,12 +2949,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:35">
       <c r="A24" s="1">
-        <v>0.00219907407407407</v>
+        <v>2.1990740740740699E-3</v>
       </c>
       <c r="B24" s="1">
-        <v>0.878657407407407</v>
+        <v>0.87865740740740705</v>
       </c>
       <c r="C24">
         <v>95</v>
@@ -3603,9 +3002,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:35">
       <c r="A25" s="1">
-        <v>0.00231481481481482</v>
+        <v>2.3148148148148199E-3</v>
       </c>
       <c r="B25" s="1">
         <v>0.878773148148148</v>
@@ -3658,10 +3057,10 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="1">
-        <v>0.00243055555555556</v>
+        <v>2.4305555555555599E-3</v>
       </c>
       <c r="B26" s="1">
-        <v>0.878888888888889</v>
+        <v>0.87888888888888905</v>
       </c>
       <c r="C26">
         <v>92</v>
@@ -3710,23 +3109,23 @@
       </c>
       <c r="U26" s="2">
         <f>AVERAGE(C6:C26)</f>
-        <v>94.4285714285714</v>
+        <v>94.428571428571431</v>
       </c>
       <c r="V26" s="2">
         <f t="shared" ref="V26:AI26" si="0">AVERAGE(D6:D26)</f>
-        <v>57.4285714285714</v>
+        <v>57.428571428571431</v>
       </c>
       <c r="W26" s="2">
         <f t="shared" si="0"/>
-        <v>5.49428571428571</v>
+        <v>5.4942857142857138</v>
       </c>
       <c r="X26" s="2">
         <f t="shared" si="0"/>
-        <v>3.40857142857143</v>
+        <v>3.4085714285714284</v>
       </c>
       <c r="Y26" s="2">
         <f t="shared" si="0"/>
-        <v>61.6666666666667</v>
+        <v>61.666666666666664</v>
       </c>
       <c r="Z26" s="2">
         <f t="shared" si="0"/>
@@ -3734,7 +3133,7 @@
       </c>
       <c r="AA26" s="2">
         <f t="shared" si="0"/>
-        <v>136.904761904762</v>
+        <v>136.9047619047619</v>
       </c>
       <c r="AB26" s="2">
         <f t="shared" si="0"/>
@@ -3746,32 +3145,32 @@
       </c>
       <c r="AD26" s="2">
         <f t="shared" si="0"/>
-        <v>92.7142857142857</v>
+        <v>92.714285714285708</v>
       </c>
       <c r="AE26" s="2">
         <f t="shared" si="0"/>
-        <v>1167.80952380952</v>
+        <v>1167.8095238095239</v>
       </c>
       <c r="AF26" s="2">
         <f t="shared" si="0"/>
-        <v>1881.71428571429</v>
+        <v>1881.7142857142858</v>
       </c>
       <c r="AG26" s="2">
         <f t="shared" si="0"/>
-        <v>3.76285714285714</v>
+        <v>3.7628571428571433</v>
       </c>
       <c r="AH26" s="2">
         <f t="shared" si="0"/>
-        <v>126.238095238095</v>
+        <v>126.23809523809524</v>
       </c>
       <c r="AI26" s="2">
         <f t="shared" si="0"/>
-        <v>40.5714285714286</v>
+        <v>40.571428571428569</v>
       </c>
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="1">
-        <v>0.0025462962962963</v>
+        <v>2.5462962962963E-3</v>
       </c>
       <c r="B27" s="1">
         <v>0.87900462962963</v>
@@ -3839,10 +3238,10 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="1">
-        <v>0.00266203703703704</v>
+        <v>2.66203703703704E-3</v>
       </c>
       <c r="B28" s="1">
-        <v>0.87912037037037</v>
+        <v>0.87912037037037005</v>
       </c>
       <c r="C28">
         <v>99</v>
@@ -3907,7 +3306,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="1">
-        <v>0.00277777777777778</v>
+        <v>2.7777777777777801E-3</v>
       </c>
       <c r="B29" s="1">
         <v>0.879236111111111</v>
@@ -3975,10 +3374,10 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="1">
-        <v>0.00289351851851852</v>
+        <v>2.8935185185185201E-3</v>
       </c>
       <c r="B30" s="1">
-        <v>0.879351851851852</v>
+        <v>0.87935185185185205</v>
       </c>
       <c r="C30">
         <v>84</v>
@@ -3987,7 +3386,7 @@
         <v>55</v>
       </c>
       <c r="E30">
-        <v>4.69</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="F30">
         <v>2.91</v>
@@ -4043,10 +3442,10 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="1">
-        <v>0.00300925925925926</v>
+        <v>3.0092592592592601E-3</v>
       </c>
       <c r="B31" s="1">
-        <v>0.879467592592593</v>
+        <v>0.87946759259259299</v>
       </c>
       <c r="C31">
         <v>91</v>
@@ -4055,7 +3454,7 @@
         <v>55</v>
       </c>
       <c r="E31">
-        <v>5.06</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="F31">
         <v>3.14</v>
@@ -4111,10 +3510,10 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="1">
-        <v>0.003125</v>
+        <v>3.1250000000000002E-3</v>
       </c>
       <c r="B32" s="1">
-        <v>0.879583333333333</v>
+        <v>0.87958333333333305</v>
       </c>
       <c r="C32">
         <v>100</v>
@@ -4179,10 +3578,10 @@
     </row>
     <row r="33" spans="1:35">
       <c r="A33" s="1">
-        <v>0.00324074074074074</v>
+        <v>3.2407407407407402E-3</v>
       </c>
       <c r="B33" s="1">
-        <v>0.879699074074074</v>
+        <v>0.87969907407407399</v>
       </c>
       <c r="C33">
         <v>87</v>
@@ -4191,7 +3590,7 @@
         <v>55</v>
       </c>
       <c r="E33">
-        <v>4.86</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="F33">
         <v>3.01</v>
@@ -4247,10 +3646,10 @@
     </row>
     <row r="34" spans="1:35">
       <c r="A34" s="1">
-        <v>0.00335648148148148</v>
+        <v>3.3564814814814798E-3</v>
       </c>
       <c r="B34" s="1">
-        <v>0.879814814814815</v>
+        <v>0.87981481481481505</v>
       </c>
       <c r="C34">
         <v>104</v>
@@ -4315,10 +3714,10 @@
     </row>
     <row r="35" spans="1:35">
       <c r="A35" s="1">
-        <v>0.00347222222222222</v>
+        <v>3.4722222222222199E-3</v>
       </c>
       <c r="B35" s="1">
-        <v>0.879930555555556</v>
+        <v>0.87993055555555599</v>
       </c>
       <c r="C35">
         <v>119</v>
@@ -4386,10 +3785,10 @@
     </row>
     <row r="36" spans="1:35">
       <c r="A36" s="1">
-        <v>0.00358796296296296</v>
+        <v>3.5879629629629599E-3</v>
       </c>
       <c r="B36" s="1">
-        <v>0.880046296296296</v>
+        <v>0.88004629629629605</v>
       </c>
       <c r="C36">
         <v>122</v>
@@ -4398,7 +3797,7 @@
         <v>71</v>
       </c>
       <c r="E36">
-        <v>8.78</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="F36">
         <v>5.45</v>
@@ -4454,10 +3853,10 @@
     </row>
     <row r="37" spans="1:35">
       <c r="A37" s="1">
-        <v>0.0037037037037037</v>
+        <v>3.7037037037036999E-3</v>
       </c>
       <c r="B37" s="1">
-        <v>0.880162037037037</v>
+        <v>0.88016203703703699</v>
       </c>
       <c r="C37">
         <v>119</v>
@@ -4466,7 +3865,7 @@
         <v>72</v>
       </c>
       <c r="E37">
-        <v>8.62</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="F37">
         <v>5.35</v>
@@ -4522,10 +3921,10 @@
     </row>
     <row r="38" spans="1:35">
       <c r="A38" s="1">
-        <v>0.00381944444444444</v>
+        <v>3.81944444444444E-3</v>
       </c>
       <c r="B38" s="1">
-        <v>0.880277777777778</v>
+        <v>0.88027777777777805</v>
       </c>
       <c r="C38">
         <v>120</v>
@@ -4590,10 +3989,10 @@
     </row>
     <row r="39" spans="1:35">
       <c r="A39" s="1">
-        <v>0.00393518518518519</v>
+        <v>3.93518518518519E-3</v>
       </c>
       <c r="B39" s="1">
-        <v>0.880393518518519</v>
+        <v>0.88039351851851899</v>
       </c>
       <c r="C39">
         <v>120</v>
@@ -4602,7 +4001,7 @@
         <v>71</v>
       </c>
       <c r="E39">
-        <v>8.62</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="F39">
         <v>5.35</v>
@@ -4658,10 +4057,10 @@
     </row>
     <row r="40" spans="1:35">
       <c r="A40" s="1">
-        <v>0.00405092592592593</v>
+        <v>4.05092592592593E-3</v>
       </c>
       <c r="B40" s="1">
-        <v>0.880509259259259</v>
+        <v>0.88050925925925905</v>
       </c>
       <c r="C40">
         <v>117</v>
@@ -4673,7 +4072,7 @@
         <v>8.09</v>
       </c>
       <c r="F40">
-        <v>5.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="G40">
         <v>67</v>
@@ -4726,10 +4125,10 @@
     </row>
     <row r="41" spans="1:35">
       <c r="A41" s="1">
-        <v>0.00416666666666667</v>
+        <v>4.1666666666666701E-3</v>
       </c>
       <c r="B41" s="1">
-        <v>0.880625</v>
+        <v>0.88062499999999999</v>
       </c>
       <c r="C41">
         <v>118</v>
@@ -4794,10 +4193,10 @@
     </row>
     <row r="42" spans="1:35">
       <c r="A42" s="1">
-        <v>0.00428240740740741</v>
+        <v>4.2824074074074101E-3</v>
       </c>
       <c r="B42" s="1">
-        <v>0.880740740740741</v>
+        <v>0.88074074074074105</v>
       </c>
       <c r="C42">
         <v>119</v>
@@ -4862,10 +4261,10 @@
     </row>
     <row r="43" spans="1:35">
       <c r="A43" s="1">
-        <v>0.00439814814814815</v>
+        <v>4.3981481481481502E-3</v>
       </c>
       <c r="B43" s="1">
-        <v>0.880856481481481</v>
+        <v>0.88085648148148099</v>
       </c>
       <c r="C43">
         <v>120</v>
@@ -4930,10 +4329,10 @@
     </row>
     <row r="44" spans="1:35">
       <c r="A44" s="1">
-        <v>0.00451388888888889</v>
+        <v>4.5138888888888902E-3</v>
       </c>
       <c r="B44" s="1">
-        <v>0.880972222222222</v>
+        <v>0.88097222222222205</v>
       </c>
       <c r="C44">
         <v>121</v>
@@ -4998,10 +4397,10 @@
     </row>
     <row r="45" spans="1:35">
       <c r="A45" s="1">
-        <v>0.00462962962962963</v>
+        <v>4.6296296296296302E-3</v>
       </c>
       <c r="B45" s="1">
-        <v>0.881087962962963</v>
+        <v>0.88108796296296299</v>
       </c>
       <c r="C45">
         <v>125</v>
@@ -5010,7 +4409,7 @@
         <v>69</v>
       </c>
       <c r="E45">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F45">
         <v>5.4</v>
@@ -5066,10 +4465,10 @@
     </row>
     <row r="46" spans="1:35">
       <c r="A46" s="1">
-        <v>0.00474537037037037</v>
+        <v>4.7453703703703703E-3</v>
       </c>
       <c r="B46" s="1">
-        <v>0.881203703703704</v>
+        <v>0.88120370370370404</v>
       </c>
       <c r="C46">
         <v>126</v>
@@ -5078,7 +4477,7 @@
         <v>70</v>
       </c>
       <c r="E46">
-        <v>8.95</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="F46">
         <v>5.55</v>
@@ -5134,10 +4533,10 @@
     </row>
     <row r="47" spans="1:35">
       <c r="A47" s="1">
-        <v>0.00486111111111111</v>
+        <v>4.8611111111111103E-3</v>
       </c>
       <c r="B47" s="1">
-        <v>0.881319444444444</v>
+        <v>0.88131944444444399</v>
       </c>
       <c r="C47">
         <v>127</v>
@@ -5146,7 +4545,7 @@
         <v>71</v>
       </c>
       <c r="E47">
-        <v>9.05</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="F47">
         <v>5.62</v>
@@ -5202,10 +4601,10 @@
     </row>
     <row r="48" spans="1:35">
       <c r="A48" s="1">
-        <v>0.00497685185185185</v>
+        <v>4.9768518518518504E-3</v>
       </c>
       <c r="B48" s="1">
-        <v>0.881435185185185</v>
+        <v>0.88143518518518504</v>
       </c>
       <c r="C48">
         <v>131</v>
@@ -5214,7 +4613,7 @@
         <v>74</v>
       </c>
       <c r="E48">
-        <v>9.78</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="F48">
         <v>6.07</v>
@@ -5270,10 +4669,10 @@
     </row>
     <row r="49" spans="1:35">
       <c r="A49" s="1">
-        <v>0.00509259259259259</v>
+        <v>5.0925925925925904E-3</v>
       </c>
       <c r="B49" s="1">
-        <v>0.881550925925926</v>
+        <v>0.88155092592592599</v>
       </c>
       <c r="C49">
         <v>133</v>
@@ -5338,10 +4737,10 @@
     </row>
     <row r="50" spans="1:35">
       <c r="A50" s="1">
-        <v>0.00520833333333333</v>
+        <v>5.2083333333333296E-3</v>
       </c>
       <c r="B50" s="1">
-        <v>0.881666666666667</v>
+        <v>0.88166666666666704</v>
       </c>
       <c r="C50">
         <v>133</v>
@@ -5406,10 +4805,10 @@
     </row>
     <row r="51" spans="1:35">
       <c r="A51" s="1">
-        <v>0.00532407407407407</v>
+        <v>5.3240740740740696E-3</v>
       </c>
       <c r="B51" s="1">
-        <v>0.881782407407407</v>
+        <v>0.88178240740740699</v>
       </c>
       <c r="C51">
         <v>135</v>
@@ -5474,10 +4873,10 @@
     </row>
     <row r="52" spans="1:35">
       <c r="A52" s="1">
-        <v>0.00543981481481481</v>
+        <v>5.4398148148148097E-3</v>
       </c>
       <c r="B52" s="1">
-        <v>0.881898148148148</v>
+        <v>0.88189814814814804</v>
       </c>
       <c r="C52">
         <v>134</v>
@@ -5486,7 +4885,7 @@
         <v>71</v>
       </c>
       <c r="E52">
-        <v>9.54</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="F52">
         <v>5.92</v>
@@ -5542,10 +4941,10 @@
     </row>
     <row r="53" spans="1:35">
       <c r="A53" s="1">
-        <v>0.00555555555555556</v>
+        <v>5.5555555555555601E-3</v>
       </c>
       <c r="B53" s="1">
-        <v>0.882013888888889</v>
+        <v>0.88201388888888899</v>
       </c>
       <c r="C53">
         <v>131</v>
@@ -5610,10 +5009,10 @@
     </row>
     <row r="54" spans="1:35">
       <c r="A54" s="1">
-        <v>0.0056712962962963</v>
+        <v>5.6712962962963001E-3</v>
       </c>
       <c r="B54" s="1">
-        <v>0.88212962962963</v>
+        <v>0.88212962962963004</v>
       </c>
       <c r="C54">
         <v>131</v>
@@ -5678,10 +5077,10 @@
     </row>
     <row r="55" spans="1:35">
       <c r="A55" s="1">
-        <v>0.00578703703703704</v>
+        <v>5.7870370370370402E-3</v>
       </c>
       <c r="B55" s="1">
-        <v>0.88224537037037</v>
+        <v>0.88224537037036999</v>
       </c>
       <c r="C55">
         <v>136</v>
@@ -5690,7 +5089,7 @@
         <v>74</v>
       </c>
       <c r="E55">
-        <v>10.21</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="F55">
         <v>6.33</v>
@@ -5746,10 +5145,10 @@
     </row>
     <row r="56" spans="1:35">
       <c r="A56" s="1">
-        <v>0.00590277777777778</v>
+        <v>5.9027777777777802E-3</v>
       </c>
       <c r="B56" s="1">
-        <v>0.882361111111111</v>
+        <v>0.88236111111111104</v>
       </c>
       <c r="C56">
         <v>140</v>
@@ -5814,10 +5213,10 @@
     </row>
     <row r="57" spans="1:35">
       <c r="A57" s="1">
-        <v>0.00601851851851852</v>
+        <v>6.0185185185185203E-3</v>
       </c>
       <c r="B57" s="1">
-        <v>0.882476851851852</v>
+        <v>0.88247685185185198</v>
       </c>
       <c r="C57">
         <v>138</v>
@@ -5882,10 +5281,10 @@
     </row>
     <row r="58" spans="1:35">
       <c r="A58" s="1">
-        <v>0.00613425925925926</v>
+        <v>6.1342592592592603E-3</v>
       </c>
       <c r="B58" s="1">
-        <v>0.882592592592593</v>
+        <v>0.88259259259259304</v>
       </c>
       <c r="C58">
         <v>138</v>
@@ -5894,7 +5293,7 @@
         <v>73</v>
       </c>
       <c r="E58">
-        <v>10.13</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="F58">
         <v>6.28</v>
@@ -5950,10 +5349,10 @@
     </row>
     <row r="59" spans="1:35">
       <c r="A59" s="1">
-        <v>0.00625</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="B59" s="1">
-        <v>0.882708333333333</v>
+        <v>0.88270833333333298</v>
       </c>
       <c r="C59">
         <v>143</v>
@@ -6018,10 +5417,10 @@
     </row>
     <row r="60" spans="1:35">
       <c r="A60" s="1">
-        <v>0.00636574074074074</v>
+        <v>6.3657407407407404E-3</v>
       </c>
       <c r="B60" s="1">
-        <v>0.882824074074074</v>
+        <v>0.88282407407407404</v>
       </c>
       <c r="C60">
         <v>145</v>
@@ -6086,10 +5485,10 @@
     </row>
     <row r="61" spans="1:35">
       <c r="A61" s="1">
-        <v>0.00648148148148148</v>
+        <v>6.4814814814814804E-3</v>
       </c>
       <c r="B61" s="1">
-        <v>0.882939814814815</v>
+        <v>0.88293981481481498</v>
       </c>
       <c r="C61">
         <v>146</v>
@@ -6154,10 +5553,10 @@
     </row>
     <row r="62" spans="1:35">
       <c r="A62" s="1">
-        <v>0.00659722222222222</v>
+        <v>6.5972222222222196E-3</v>
       </c>
       <c r="B62" s="1">
-        <v>0.883055555555555</v>
+        <v>0.88305555555555504</v>
       </c>
       <c r="C62">
         <v>146</v>
@@ -6222,10 +5621,10 @@
     </row>
     <row r="63" spans="1:35">
       <c r="A63" s="1">
-        <v>0.00671296296296296</v>
+        <v>6.7129629629629596E-3</v>
       </c>
       <c r="B63" s="1">
-        <v>0.883171296296296</v>
+        <v>0.88317129629629598</v>
       </c>
       <c r="C63">
         <v>147</v>
@@ -6290,10 +5689,10 @@
     </row>
     <row r="64" spans="1:35">
       <c r="A64" s="1">
-        <v>0.0068287037037037</v>
+        <v>6.8287037037036997E-3</v>
       </c>
       <c r="B64" s="1">
-        <v>0.883287037037037</v>
+        <v>0.88328703703703704</v>
       </c>
       <c r="C64">
         <v>149</v>
@@ -6358,10 +5757,10 @@
     </row>
     <row r="65" spans="1:35">
       <c r="A65" s="1">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="B65" s="1">
-        <v>0.883402777777778</v>
+        <v>0.88340277777777798</v>
       </c>
       <c r="C65">
         <v>150</v>
@@ -6426,10 +5825,10 @@
     </row>
     <row r="66" spans="1:35">
       <c r="A66" s="1">
-        <v>0.00706018518518518</v>
+        <v>7.0601851851851798E-3</v>
       </c>
       <c r="B66" s="1">
-        <v>0.883518518518518</v>
+        <v>0.88351851851851804</v>
       </c>
       <c r="C66">
         <v>149</v>
@@ -6494,10 +5893,10 @@
     </row>
     <row r="67" spans="1:35">
       <c r="A67" s="1">
-        <v>0.00717592592592593</v>
+        <v>7.1759259259259302E-3</v>
       </c>
       <c r="B67" s="1">
-        <v>0.883634259259259</v>
+        <v>0.88363425925925898</v>
       </c>
       <c r="C67">
         <v>151</v>
@@ -6565,10 +5964,10 @@
     </row>
     <row r="68" spans="1:35">
       <c r="A68" s="1">
-        <v>0.00729166666666667</v>
+        <v>7.2916666666666703E-3</v>
       </c>
       <c r="B68" s="1">
-        <v>0.88375</v>
+        <v>0.88375000000000004</v>
       </c>
       <c r="C68">
         <v>157</v>
@@ -6633,10 +6032,10 @@
     </row>
     <row r="69" spans="1:35">
       <c r="A69" s="1">
-        <v>0.00740740740740741</v>
+        <v>7.4074074074074103E-3</v>
       </c>
       <c r="B69" s="1">
-        <v>0.883865740740741</v>
+        <v>0.88386574074074098</v>
       </c>
       <c r="C69">
         <v>159</v>
@@ -6701,10 +6100,10 @@
     </row>
     <row r="70" spans="1:35">
       <c r="A70" s="1">
-        <v>0.00752314814814815</v>
+        <v>7.5231481481481503E-3</v>
       </c>
       <c r="B70" s="1">
-        <v>0.883981481481482</v>
+        <v>0.88398148148148203</v>
       </c>
       <c r="C70">
         <v>162</v>
@@ -6769,10 +6168,10 @@
     </row>
     <row r="71" spans="1:35">
       <c r="A71" s="1">
-        <v>0.00763888888888889</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="B71" s="1">
-        <v>0.884097222222222</v>
+        <v>0.88409722222222198</v>
       </c>
       <c r="C71">
         <v>165</v>
@@ -6837,10 +6236,10 @@
     </row>
     <row r="72" spans="1:35">
       <c r="A72" s="1">
-        <v>0.00775462962962963</v>
+        <v>7.7546296296296304E-3</v>
       </c>
       <c r="B72" s="1">
-        <v>0.884212962962963</v>
+        <v>0.88421296296296303</v>
       </c>
       <c r="C72">
         <v>168</v>
@@ -6905,10 +6304,10 @@
     </row>
     <row r="73" spans="1:35">
       <c r="A73" s="1">
-        <v>0.00787037037037037</v>
+        <v>7.8703703703703696E-3</v>
       </c>
       <c r="B73" s="1">
-        <v>0.884328703703704</v>
+        <v>0.88432870370370398</v>
       </c>
       <c r="C73">
         <v>170</v>
@@ -6947,7 +6346,7 @@
         <v>832</v>
       </c>
       <c r="O73">
-        <v>8.46</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="P73">
         <v>125</v>
@@ -6973,10 +6372,10 @@
     </row>
     <row r="74" spans="1:35">
       <c r="A74" s="1">
-        <v>0.00798611111111111</v>
+        <v>7.9861111111111105E-3</v>
       </c>
       <c r="B74" s="1">
-        <v>0.884444444444444</v>
+        <v>0.88444444444444403</v>
       </c>
       <c r="C74">
         <v>171</v>
@@ -7041,10 +6440,10 @@
     </row>
     <row r="75" spans="1:35">
       <c r="A75" s="1">
-        <v>0.00810185185185185</v>
+        <v>8.1018518518518497E-3</v>
       </c>
       <c r="B75" s="1">
-        <v>0.884560185185185</v>
+        <v>0.88456018518518498</v>
       </c>
       <c r="C75">
         <v>175</v>
@@ -7109,10 +6508,10 @@
     </row>
     <row r="76" spans="1:35">
       <c r="A76" s="1">
-        <v>0.00821759259259259</v>
+        <v>8.2175925925925906E-3</v>
       </c>
       <c r="B76" s="1">
-        <v>0.884675925925926</v>
+        <v>0.88467592592592603</v>
       </c>
       <c r="C76">
         <v>178</v>
@@ -7177,10 +6576,10 @@
     </row>
     <row r="77" spans="1:35">
       <c r="A77" s="1">
-        <v>0.00833333333333333</v>
+        <v>8.3333333333333297E-3</v>
       </c>
       <c r="B77" s="1">
-        <v>0.884791666666667</v>
+        <v>0.88479166666666698</v>
       </c>
       <c r="C77">
         <v>179</v>
@@ -7236,15 +6635,15 @@
       </c>
       <c r="V77" s="2">
         <f t="shared" ref="V77:AI77" si="1">AVERAGE(D68:D77)</f>
-        <v>72.1</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="W77" s="2">
         <f t="shared" si="1"/>
-        <v>12.241</v>
+        <v>12.241000000000001</v>
       </c>
       <c r="X77" s="2">
         <f t="shared" si="1"/>
-        <v>7.596</v>
+        <v>7.5959999999999992</v>
       </c>
       <c r="Y77" s="2">
         <f t="shared" si="1"/>
@@ -7252,7 +6651,7 @@
       </c>
       <c r="Z77" s="2">
         <f t="shared" si="1"/>
-        <v>284.9</v>
+        <v>284.89999999999998</v>
       </c>
       <c r="AA77" s="2">
         <f t="shared" si="1"/>
@@ -7280,7 +6679,7 @@
       </c>
       <c r="AG77" s="2">
         <f t="shared" si="1"/>
-        <v>8.386</v>
+        <v>8.3859999999999992</v>
       </c>
       <c r="AH77" s="2">
         <f t="shared" si="1"/>
@@ -7293,10 +6692,10 @@
     </row>
     <row r="78" spans="1:35">
       <c r="A78" s="1">
-        <v>0.00844907407407407</v>
+        <v>8.4490740740740707E-3</v>
       </c>
       <c r="B78" s="1">
-        <v>0.884907407407407</v>
+        <v>0.88490740740740703</v>
       </c>
       <c r="C78">
         <v>180</v>
@@ -7335,7 +6734,7 @@
         <v>771</v>
       </c>
       <c r="O78">
-        <v>9.12</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="P78">
         <v>110</v>
@@ -7361,10 +6760,10 @@
     </row>
     <row r="79" spans="1:35">
       <c r="A79" s="1">
-        <v>0.00856481481481482</v>
+        <v>8.5648148148148202E-3</v>
       </c>
       <c r="B79" s="1">
-        <v>0.885023148148148</v>
+        <v>0.88502314814814798</v>
       </c>
       <c r="C79">
         <v>181</v>
@@ -7429,10 +6828,10 @@
     </row>
     <row r="80" spans="1:35">
       <c r="A80" s="1">
-        <v>0.00868055555555556</v>
+        <v>8.6805555555555594E-3</v>
       </c>
       <c r="B80" s="1">
-        <v>0.885138888888889</v>
+        <v>0.88513888888888903</v>
       </c>
       <c r="C80">
         <v>181</v>
@@ -7479,73 +6878,76 @@
       <c r="Q80">
         <v>31</v>
       </c>
+      <c r="S80" t="s">
+        <v>45</v>
+      </c>
       <c r="U80" s="2">
         <f>AVERAGE(C68:C80)</f>
-        <v>171.230769230769</v>
+        <v>171.23076923076923</v>
       </c>
       <c r="V80" s="2">
         <f t="shared" ref="V80:AI80" si="2">AVERAGE(D68:D80)</f>
-        <v>72.5384615384615</v>
+        <v>72.538461538461533</v>
       </c>
       <c r="W80" s="2">
-        <f t="shared" si="2"/>
-        <v>12.5338461538462</v>
+        <f>AVERAGE(E79:E82)</f>
+        <v>13.6075</v>
       </c>
       <c r="X80" s="2">
         <f t="shared" si="2"/>
-        <v>7.77846153846154</v>
+        <v>7.7784615384615385</v>
       </c>
       <c r="Y80" s="2">
         <f t="shared" si="2"/>
-        <v>67.8461538461538</v>
+        <v>67.84615384615384</v>
       </c>
       <c r="Z80" s="2">
         <f t="shared" si="2"/>
-        <v>277.846153846154</v>
+        <v>277.84615384615387</v>
       </c>
       <c r="AA80" s="2">
         <f t="shared" si="2"/>
-        <v>202.230769230769</v>
+        <v>202.23076923076923</v>
       </c>
       <c r="AB80" s="2">
         <f t="shared" si="2"/>
-        <v>109.461538461538</v>
+        <v>109.46153846153847</v>
       </c>
       <c r="AC80" s="2">
         <f t="shared" si="2"/>
-        <v>74.7692307692308</v>
+        <v>74.769230769230774</v>
       </c>
       <c r="AD80" s="2">
         <f t="shared" si="2"/>
-        <v>106.384615384615</v>
+        <v>106.38461538461539</v>
       </c>
       <c r="AE80" s="2">
         <f t="shared" si="2"/>
-        <v>509.461538461538</v>
+        <v>509.46153846153845</v>
       </c>
       <c r="AF80" s="2">
         <f t="shared" si="2"/>
-        <v>821.153846153846</v>
+        <v>821.15384615384619</v>
       </c>
       <c r="AG80" s="2">
         <f t="shared" si="2"/>
-        <v>8.58769230769231</v>
+        <v>8.5876923076923095</v>
       </c>
       <c r="AH80" s="2">
         <f t="shared" si="2"/>
-        <v>122.461538461538</v>
+        <v>122.46153846153847</v>
       </c>
       <c r="AI80" s="2">
         <f t="shared" si="2"/>
-        <v>30.6153846153846</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17">
+        <v>30.615384615384617</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81" s="1">
-        <v>0.0087962962962963</v>
+        <v>8.7962962962963003E-3</v>
       </c>
       <c r="B81" s="1">
-        <v>0.88525462962963</v>
+        <v>0.88525462962962997</v>
       </c>
       <c r="C81">
         <v>182</v>
@@ -7557,7 +6959,7 @@
         <v>13.74</v>
       </c>
       <c r="F81">
-        <v>8.53</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="G81">
         <v>69</v>
@@ -7593,12 +6995,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:19">
       <c r="A82" s="1">
-        <v>0.00891203703703704</v>
+        <v>8.9120370370370395E-3</v>
       </c>
       <c r="B82" s="1">
-        <v>0.88537037037037</v>
+        <v>0.88537037037037003</v>
       </c>
       <c r="C82">
         <v>179</v>
@@ -7648,10 +7050,10 @@
     </row>
     <row r="83" spans="1:19">
       <c r="A83" s="1">
-        <v>0.00902777777777778</v>
+        <v>9.0277777777777804E-3</v>
       </c>
       <c r="B83" s="1">
-        <v>0.885486111111111</v>
+        <v>0.88548611111111097</v>
       </c>
       <c r="C83">
         <v>174</v>
@@ -7663,7 +7065,7 @@
         <v>13.24</v>
       </c>
       <c r="F83">
-        <v>8.22</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="G83">
         <v>67</v>
@@ -7702,12 +7104,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:19">
       <c r="A84" s="1">
-        <v>0.00914351851851852</v>
+        <v>9.1435185185185196E-3</v>
       </c>
       <c r="B84" s="1">
-        <v>0.885601851851852</v>
+        <v>0.88560185185185203</v>
       </c>
       <c r="C84">
         <v>169</v>
@@ -7755,12 +7157,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:19">
       <c r="A85" s="1">
-        <v>0.00925925925925926</v>
+        <v>9.2592592592592605E-3</v>
       </c>
       <c r="B85" s="1">
-        <v>0.885717592592593</v>
+        <v>0.88571759259259297</v>
       </c>
       <c r="C85">
         <v>165</v>
@@ -7808,12 +7210,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:19">
       <c r="A86" s="1">
-        <v>0.009375</v>
+        <v>9.3749999999999997E-3</v>
       </c>
       <c r="B86" s="1">
-        <v>0.885833333333333</v>
+        <v>0.88583333333333303</v>
       </c>
       <c r="C86">
         <v>166</v>
@@ -7852,7 +7254,7 @@
         <v>859</v>
       </c>
       <c r="O86">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="P86">
         <v>113</v>
@@ -7861,12 +7263,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:19">
       <c r="A87" s="1">
-        <v>0.00949074074074074</v>
+        <v>9.4907407407407406E-3</v>
       </c>
       <c r="B87" s="1">
-        <v>0.885949074074074</v>
+        <v>0.88594907407407397</v>
       </c>
       <c r="C87">
         <v>164</v>
@@ -7905,7 +7307,7 @@
         <v>850</v>
       </c>
       <c r="O87">
-        <v>8.28</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="P87">
         <v>115</v>
@@ -7914,46 +7316,37 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:19">
       <c r="A89" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>